--- a/InterviewManagement/src/main/resources/edited_template.xlsx
+++ b/InterviewManagement/src/main/resources/edited_template.xlsx
@@ -417,10 +417,10 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/InterviewManagement/src/main/resources/edited_template.xlsx
+++ b/InterviewManagement/src/main/resources/edited_template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Total Of Job</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Number Of Fail</t>
+  </si>
+  <si>
+    <t>Errors:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row 1: Trùng Title. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row 2: Ngày bắt đầu không được là quá khứ. Định dạng ngày kết thúc không hợp lệ hoặc trống. Giá trị T không hợp lệ hoặc trống. </t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF128B99-204C-48C7-815C-366214971B01}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +426,25 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
         <v>2.0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/InterviewManagement/src/main/resources/edited_template.xlsx
+++ b/InterviewManagement/src/main/resources/edited_template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Total Of Job</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Number Of Fail</t>
+  </si>
+  <si>
+    <t>Errors:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row 1: Trùng Title. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row 2: Ngày bắt đầu không được là quá khứ. Định dạng ngày kết thúc không hợp lệ hoặc trống. Giá trị T không hợp lệ hoặc trống. </t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF128B99-204C-48C7-815C-366214971B01}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,6 +432,21 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InterviewManagement/src/main/resources/edited_template.xlsx
+++ b/InterviewManagement/src/main/resources/edited_template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Total Of Job</t>
   </si>
@@ -48,10 +48,7 @@
     <t>Errors:</t>
   </si>
   <si>
-    <t xml:space="preserve">Row 1: Trùng Title. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Row 2: Ngày bắt đầu không được là quá khứ. Định dạng ngày kết thúc không hợp lệ hoặc trống. Giá trị T không hợp lệ hoặc trống. </t>
+    <t xml:space="preserve">Row 1: Row 2: Định dạng ngày kết thúc không hợp lệ hoặc trống. Giá trị T không hợp lệ hoặc trống. </t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF128B99-204C-48C7-815C-366214971B01}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +423,10 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -440,11 +437,6 @@
     <row r="4">
       <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/InterviewManagement/src/main/resources/edited_template.xlsx
+++ b/InterviewManagement/src/main/resources/edited_template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Total Of Job</t>
   </si>
@@ -48,7 +48,10 @@
     <t>Errors:</t>
   </si>
   <si>
-    <t xml:space="preserve">Row 1: Row 2: Định dạng ngày kết thúc không hợp lệ hoặc trống. Giá trị T không hợp lệ hoặc trống. </t>
+    <t xml:space="preserve">Row 1: Trùng Title. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row 2: Trùng Title. </t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF128B99-204C-48C7-815C-366214971B01}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +426,10 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>-4.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -437,6 +440,11 @@
     <row r="4">
       <c r="A4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/InterviewManagement/src/main/resources/edited_template.xlsx
+++ b/InterviewManagement/src/main/resources/edited_template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Total Of Job</t>
   </si>
@@ -48,10 +48,7 @@
     <t>Errors:</t>
   </si>
   <si>
-    <t xml:space="preserve">Row 1: Trùng Title. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Row 2: Trùng Title. </t>
+    <t xml:space="preserve">Row 1: </t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF128B99-204C-48C7-815C-366214971B01}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,13 +420,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C2" t="n">
         <v>2.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-4.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -440,11 +437,6 @@
     <row r="4">
       <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
